--- a/wcsa5seleniumproject/data/ActiTimeTestdata.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestdata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wcsa5workspace\wcsa5seleniumproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puyed\git\wcsa5Repository\wcsa5seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967913C-D21B-41A3-B777-28E9D345EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E877FF14-34DD-4C3A-8BD3-AC827C215D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreads" sheetId="1" r:id="rId1"/>
     <sheet name="validcreads" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>USERNAME</t>
   </si>
@@ -65,6 +66,24 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>testeng</t>
+  </si>
+  <si>
+    <t>retypepassword</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>soni</t>
+  </si>
+  <si>
+    <t>puyed</t>
   </si>
 </sst>
 </file>
@@ -130,11 +149,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3D4A9-A22B-49B3-8F99-14B5E9924E2F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -528,4 +551,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1DF95B-0841-40A3-BEBF-A87C2132DAD2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="0.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5">
+        <v>123</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>